--- a/NaukariProject/target/test-classes/TestData/Test.xlsx
+++ b/NaukariProject/target/test-classes/TestData/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\NaukariProject (2)\NaukariProject\src\test\resources\TestData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,8 +30,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+  <si>
+    <t>Mobile: 91-9818882211</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +391,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NaukariProject/target/test-classes/TestData/Test.xlsx
+++ b/NaukariProject/target/test-classes/TestData/Test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>Mobile: 91-9818882211</t>
   </si>

--- a/NaukariProject/target/test-classes/TestData/Test.xlsx
+++ b/NaukariProject/target/test-classes/TestData/Test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
   <si>
     <t>Mobile: 91-9818882211</t>
   </si>
